--- a/data/trans_bre/P21_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P21_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1883161623253132</v>
+        <v>-0.7840291820568269</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.329046282481733</v>
+        <v>3.025486375951357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.131066782076226</v>
+        <v>1.13079362376195</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.923956283215535</v>
+        <v>-3.4956499058295</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.01115648927087652</v>
+        <v>-0.04331440154116728</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1509699191893519</v>
+        <v>0.1300932708822537</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05025934333983728</v>
+        <v>0.06291355725376249</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1693751244306119</v>
+        <v>-0.1591559911833633</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.723884089753347</v>
+        <v>7.561663673514126</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.08719202294923</v>
+        <v>12.92333444676144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.681494957454232</v>
+        <v>9.499776358475337</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.829280568763189</v>
+        <v>5.073618292958614</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5238590745308238</v>
+        <v>0.5237569529585734</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.672243204038585</v>
+        <v>0.7181491685046819</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6982475726402328</v>
+        <v>0.6775601720355666</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2773535789153459</v>
+        <v>0.2861826858964332</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.724985527979557</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.046132731607778</v>
+        <v>2.046132731607786</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5110947090365218</v>
@@ -749,7 +749,7 @@
         <v>0.2169038153869239</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.09157545559754493</v>
+        <v>0.0915754555975453</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.874671978740649</v>
+        <v>5.976786125018229</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.743143261424451</v>
+        <v>2.63671403840138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3950162000341927</v>
+        <v>-0.004715771294307213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.816466714800863</v>
+        <v>-1.846843992315269</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2731124683681635</v>
+        <v>0.272199432256822</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1129871391599682</v>
+        <v>0.10460340150806</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02092879045212686</v>
+        <v>-0.001125600314489657</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07420218047588735</v>
+        <v>-0.07194559164385089</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.9974905443457</v>
+        <v>13.6475724807351</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.4847914387522</v>
+        <v>10.60191271395186</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.195601710518881</v>
+        <v>7.189039771825673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.664313590444984</v>
+        <v>5.879999894861192</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7937529261767498</v>
+        <v>0.7722283426545193</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5135602142518721</v>
+        <v>0.510545610463364</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.463523575082491</v>
+        <v>0.4601864987098527</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2805464356932061</v>
+        <v>0.293001803551644</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.860457486607731</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.936035969160137</v>
+        <v>7.936035969160135</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4165524275810631</v>
@@ -849,7 +849,7 @@
         <v>0.1691144331301918</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4170974817597948</v>
+        <v>0.4170974817597946</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.179808755888523</v>
+        <v>2.908206254296159</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.766792226775485</v>
+        <v>4.156484732171459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.166650271934529</v>
+        <v>-1.420419422649571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.719421429779669</v>
+        <v>3.25624003376653</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1546943574781255</v>
+        <v>0.1304444770698931</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1326295927567173</v>
+        <v>0.151873389917443</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.06189115732798202</v>
+        <v>-0.07573888187762939</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1618104184060585</v>
+        <v>0.1424217699393382</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.17196113937806</v>
+        <v>12.00937722227738</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.69104529645046</v>
+        <v>13.34224851440736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.942578147568577</v>
+        <v>6.780580489970861</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.19510724436944</v>
+        <v>11.71024375345137</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7670127738259307</v>
+        <v>0.7173020429997907</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.636009318019325</v>
+        <v>0.6190684543829238</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4568336343471932</v>
+        <v>0.4589950922996145</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7287271649478662</v>
+        <v>0.6960888983419837</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.737701717379185</v>
+        <v>3.97844642385573</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.262095202588896</v>
+        <v>1.76435939121258</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.615884532379387</v>
+        <v>3.172654418659884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.411472207682147</v>
+        <v>2.612634482759785</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2252252222315011</v>
+        <v>0.2327592143064354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1256784866214905</v>
+        <v>0.09862103896851168</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2029354988241076</v>
+        <v>0.1755347271627241</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1001241159077719</v>
+        <v>0.1148495690911229</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.60098251941791</v>
+        <v>10.8916769575519</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.944548771709028</v>
+        <v>8.973663503349915</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.57437004600188</v>
+        <v>10.57812664841043</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.801302092332286</v>
+        <v>9.612714301461892</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7978169097668293</v>
+        <v>0.8319856885390754</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6283437511698171</v>
+        <v>0.6110042339485707</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7132010127267748</v>
+        <v>0.7139777845285287</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5189290952445651</v>
+        <v>0.5169711456337794</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.2898735375701104</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2073988374656988</v>
+        <v>0.2073988374656987</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.372991071365798</v>
+        <v>5.481597295093241</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.926132980992717</v>
+        <v>4.83779798931056</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.996274464347328</v>
+        <v>3.012852262421083</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.365160293228151</v>
+        <v>2.340328247679401</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2948741151093336</v>
+        <v>0.30344729908968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2287241554289204</v>
+        <v>0.2232146100363284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1702526050563183</v>
+        <v>0.1708204901842856</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1065242444356499</v>
+        <v>0.1055637993146318</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.148041403699288</v>
+        <v>9.23258432347127</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.091182350832998</v>
+        <v>8.915322906518227</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.653943333833815</v>
+        <v>6.638861201869105</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.353448208140717</v>
+        <v>6.282910837988847</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5688242912059881</v>
+        <v>0.5751052650040417</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4706628827548401</v>
+        <v>0.4617555816085313</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4286262466921743</v>
+        <v>0.4199953813960297</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3202984170033497</v>
+        <v>0.3163159820001836</v>
       </c>
     </row>
     <row r="19">
